--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Rbp4</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.91589542816295</v>
+        <v>4.164095000000001</v>
       </c>
       <c r="H2">
-        <v>3.91589542816295</v>
+        <v>12.492285</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9890011363911656</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9890011363911656</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.323418357664631</v>
+        <v>0.3437216666666667</v>
       </c>
       <c r="N2">
-        <v>0.323418357664631</v>
+        <v>1.031165</v>
       </c>
       <c r="O2">
-        <v>0.3305577880373528</v>
+        <v>0.3023306815952884</v>
       </c>
       <c r="P2">
-        <v>0.3305577880373528</v>
+        <v>0.3023306815952883</v>
       </c>
       <c r="Q2">
-        <v>1.266472468162898</v>
+        <v>1.431289673558334</v>
       </c>
       <c r="R2">
-        <v>1.266472468162898</v>
+        <v>12.881607062025</v>
       </c>
       <c r="S2">
-        <v>0.3305577880373528</v>
+        <v>0.2990053876636559</v>
       </c>
       <c r="T2">
-        <v>0.3305577880373528</v>
+        <v>0.2990053876636558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,185 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4.164095000000001</v>
+      </c>
+      <c r="H3">
+        <v>12.492285</v>
+      </c>
+      <c r="I3">
+        <v>0.9890011363911656</v>
+      </c>
+      <c r="J3">
+        <v>0.9890011363911656</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.7931846666666665</v>
+      </c>
+      <c r="N3">
+        <v>2.379554</v>
+      </c>
+      <c r="O3">
+        <v>0.6976693184047117</v>
+      </c>
+      <c r="P3">
+        <v>0.6976693184047117</v>
+      </c>
+      <c r="Q3">
+        <v>3.302896304543333</v>
+      </c>
+      <c r="R3">
+        <v>29.72606674089</v>
+      </c>
+      <c r="S3">
+        <v>0.6899957487275098</v>
+      </c>
+      <c r="T3">
+        <v>0.6899957487275098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.91589542816295</v>
-      </c>
-      <c r="H3">
-        <v>3.91589542816295</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.654983511445423</v>
-      </c>
-      <c r="N3">
-        <v>0.654983511445423</v>
-      </c>
-      <c r="O3">
-        <v>0.6694422119626472</v>
-      </c>
-      <c r="P3">
-        <v>0.6694422119626472</v>
-      </c>
-      <c r="Q3">
-        <v>2.564846937991247</v>
-      </c>
-      <c r="R3">
-        <v>2.564846937991247</v>
-      </c>
-      <c r="S3">
-        <v>0.6694422119626472</v>
-      </c>
-      <c r="T3">
-        <v>0.6694422119626472</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.04630966666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.138929</v>
+      </c>
+      <c r="I4">
+        <v>0.01099886360883443</v>
+      </c>
+      <c r="J4">
+        <v>0.01099886360883443</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.3437216666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.031165</v>
+      </c>
+      <c r="O4">
+        <v>0.3023306815952884</v>
+      </c>
+      <c r="P4">
+        <v>0.3023306815952883</v>
+      </c>
+      <c r="Q4">
+        <v>0.01591763580944444</v>
+      </c>
+      <c r="R4">
+        <v>0.143258722285</v>
+      </c>
+      <c r="S4">
+        <v>0.003325293931632526</v>
+      </c>
+      <c r="T4">
+        <v>0.003325293931632526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.04630966666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.138929</v>
+      </c>
+      <c r="I5">
+        <v>0.01099886360883443</v>
+      </c>
+      <c r="J5">
+        <v>0.01099886360883443</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7931846666666665</v>
+      </c>
+      <c r="N5">
+        <v>2.379554</v>
+      </c>
+      <c r="O5">
+        <v>0.6976693184047117</v>
+      </c>
+      <c r="P5">
+        <v>0.6976693184047117</v>
+      </c>
+      <c r="Q5">
+        <v>0.03673211751844443</v>
+      </c>
+      <c r="R5">
+        <v>0.3305890576659999</v>
+      </c>
+      <c r="S5">
+        <v>0.007673569677201905</v>
+      </c>
+      <c r="T5">
+        <v>0.007673569677201906</v>
       </c>
     </row>
   </sheetData>
